--- a/biology/Zoologie/Hesperochthonius/Hesperochthonius.xlsx
+++ b/biology/Zoologie/Hesperochthonius/Hesperochthonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperochthonius est un genre de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1]. Elles se rencontrent en Californie et en Oregon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Californie et en Oregon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Hesperochthonius californicus (Chamberlin, 1929)
 Hesperochthonius oregonicus (Muchmore, 1968)
 Hesperochthonius spingolus (Schuster, 1962)</t>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en tant que sous-genre de Chthonius. Il a été élevé au rang de genre par Zaragoza en 2017[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en tant que sous-genre de Chthonius. Il a été élevé au rang de genre par Zaragoza en 2017.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Muchmore, 1968 : Two new species of chthoniid pseudoscorpions from the western United States (Arachnida: Chelonethida: Chthoniidae). Pan-Pacific Entomologist, vol. 44, p. 51-57 (texte intégral).</t>
         </is>
